--- a/medicine/Médecine vétérinaire/Vermifugation/Vermifugation.xlsx
+++ b/medicine/Médecine vétérinaire/Vermifugation/Vermifugation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vermifugation désigne l'administration d'un médicament antiparasitaire destiné à éliminer les vers intestinaux d'un humain ou d'un animal.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,11 +553,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vermifugation systématique
-Elle consiste à vermifuger les animaux à des dates précises[1].
-Vermifugation raisonnée
-La vermifugation raisonnée s'oppose à la vermifugation systématique. 
-Vermifugation sélective</t>
+          <t>Vermifugation systématique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle consiste à vermifuger les animaux à des dates précises.
+</t>
         </is>
       </c>
     </row>
@@ -568,10 +585,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parasites visés par la vermifugation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Types de vermifugation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vermifugation raisonnée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La vermifugation raisonnée s'oppose à la vermifugation systématique. </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,15 +622,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Molécules employées</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses molécules sont disponibles sur le marché comme vermifuges[2].
-</t>
-        </is>
-      </c>
+          <t>Parasites visés par la vermifugation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,10 +650,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Intérêts</t>
+          <t>Molécules employées</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses molécules sont disponibles sur le marché comme vermifuges.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,21 +683,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Recommandations</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Des organismes vétérinaires comme la European Scientific Counsel Companion Animal Parasites (ESCCAP) ou le British Veterinary Association élaborent des recommandations basées sur l'évaluation de plusieurs facteurs, comme l'exposition aux parasites, la probabilité de leur présence et leur dangerosité, dans le but de diminuer le risque de résistance tout en considérant les risques zoonotiques[2]. 
-Bovins
-Carnivores domestiques
-Pour les chiens et les chats adultes, l'ESCCAP recommande une évalution individuelle des besoins en vermifugation pour chaque animal[2].
-Chevaux
-Le plan de vermifugation et le choix de la molécule à utiliser dépendent à la fois de l'âge de l'individu, de son poids, du fait qu'il soit excréteur ou non de vers, mais aussi de la saison et des molécules précédemment employées afin de ne pas favoriser une résistance des parasites[3]. Les animaux d'un même groupe sont vermifugés en même temps[3].
-En France, le vermifuge est prescrit par une vétérinaire, et délivré par un vétérinaire ou un pharmacien. Il est déconseillé d'employer des molécules destinées au bovins, celles-ci n'ayant pas été testées chez les chevaux[3].
-Humains</t>
-        </is>
-      </c>
+          <t>Intérêts</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -688,10 +711,120 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Recommandations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des organismes vétérinaires comme la European Scientific Counsel Companion Animal Parasites (ESCCAP) ou le British Veterinary Association élaborent des recommandations basées sur l'évaluation de plusieurs facteurs, comme l'exposition aux parasites, la probabilité de leur présence et leur dangerosité, dans le but de diminuer le risque de résistance tout en considérant les risques zoonotiques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vermifugation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermifugation</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Recommandations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Carnivores domestiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les chiens et les chats adultes, l'ESCCAP recommande une évalution individuelle des besoins en vermifugation pour chaque animal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vermifugation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermifugation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Recommandations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chevaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plan de vermifugation et le choix de la molécule à utiliser dépendent à la fois de l'âge de l'individu, de son poids, du fait qu'il soit excréteur ou non de vers, mais aussi de la saison et des molécules précédemment employées afin de ne pas favoriser une résistance des parasites. Les animaux d'un même groupe sont vermifugés en même temps.
+En France, le vermifuge est prescrit par une vétérinaire, et délivré par un vétérinaire ou un pharmacien. Il est déconseillé d'employer des molécules destinées au bovins, celles-ci n'ayant pas été testées chez les chevaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vermifugation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermifugation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Impact écologique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
